--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T18:56:29+00:00</t>
+    <t>2024-09-12T18:14:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T18:14:21+00:00</t>
+    <t>2024-09-13T20:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T20:57:31+00:00</t>
+    <t>2024-09-16T16:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T16:04:42+00:00</t>
+    <t>2024-09-18T19:34:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T19:34:29+00:00</t>
+    <t>2024-09-25T18:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T18:09:20+00:00</t>
+    <t>2024-09-26T15:36:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T15:36:52+00:00</t>
+    <t>2024-09-26T17:33:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T17:33:09+00:00</t>
+    <t>2024-09-26T18:25:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T18:25:51+00:00</t>
+    <t>2024-09-26T19:08:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T19:08:25+00:00</t>
+    <t>2024-10-07T20:39:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T20:39:38+00:00</t>
+    <t>2024-10-08T12:54:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T12:54:01+00:00</t>
+    <t>2024-10-08T13:48:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T13:48:24+00:00</t>
+    <t>2024-10-28T19:33:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T19:33:15+00:00</t>
+    <t>2024-10-30T18:30:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T18:30:14+00:00</t>
+    <t>2024-11-25T15:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T15:36:07+00:00</t>
+    <t>2025-01-06T15:08:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T15:08:44+00:00</t>
+    <t>2025-01-10T20:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:53:40+00:00</t>
+    <t>2025-01-13T15:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T15:02:43+00:00</t>
+    <t>2025-01-13T16:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T16:25:54+00:00</t>
+    <t>2025-01-14T18:54:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T18:54:07+00:00</t>
+    <t>2025-01-27T23:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T23:56:01+00:00</t>
+    <t>2025-01-28T00:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T00:06:22+00:00</t>
+    <t>2025-02-07T15:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T15:45:47+00:00</t>
+    <t>2025-03-11T16:55:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-11T16:55:01+00:00</t>
+    <t>2025-03-24T15:08:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T15:08:47+00:00</t>
+    <t>2025-05-11T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-11T16:39:55+00:00</t>
+    <t>2025-05-16T18:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-16T18:22:27+00:00</t>
+    <t>2025-05-21T14:15:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:15:46+00:00</t>
+    <t>2025-05-21T14:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Property</t>
   </si>
@@ -54,10 +54,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:22:51+00:00</t>
+    <t>2025-06-13T15:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -298,64 +301,68 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -377,28 +384,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T15:45:04+00:00</t>
+    <t>2025-06-25T19:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T19:44:14+00:00</t>
+    <t>2025-06-27T14:40:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-27T14:40:47+00:00</t>
+    <t>2025-07-21T16:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:00:02+00:00</t>
+    <t>2025-07-21T16:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:06:27+00:00</t>
+    <t>2025-07-22T19:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:44:39+00:00</t>
+    <t>2025-08-11T13:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:46:00+00:00</t>
+    <t>2025-08-11T15:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T15:03:48+00:00</t>
+    <t>2025-08-12T16:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:35:35+00:00</t>
+    <t>2025-08-12T16:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:41:46+00:00</t>
+    <t>2025-08-12T16:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:58:49+00:00</t>
+    <t>2025-08-12T17:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T17:45:57+00:00</t>
+    <t>2025-08-12T18:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-condition-type-vs.xlsx
+++ b/ValueSet-condition-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T18:02:45+00:00</t>
+    <t>2025-08-26T23:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
